--- a/EXCEL_TASKS_01.02.2026.xlsx
+++ b/EXCEL_TASKS_01.02.2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D6B7F-AF42-41E3-A304-F84021F3D756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20A94B-8CCC-4820-BD99-4EAF3914B700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67626CB9-6A43-470F-930A-AA301D2E6489}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -173,13 +173,16 @@
   </si>
   <si>
     <t>E999</t>
+  </si>
+  <si>
+    <t>BONUS %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +191,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -302,60 +313,60 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,7 +685,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="I9" sqref="I9:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,90 +890,110 @@
       <c r="F9" s="8">
         <v>2016</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+      <c r="I10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="19" t="str">
         <f>VLOOKUP(I10,A1:F9,2,0)</f>
         <v>Rohit Verma</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="19" t="str">
         <f>VLOOKUP(I10,A1:F9,3,0)</f>
         <v>IT</v>
       </c>
-      <c r="N10" t="str">
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19" t="str">
         <f>IFERROR(VLOOKUP(I10,A1:F9,1,0),"NOT FOUND")</f>
         <v>E103</v>
       </c>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
+      <c r="I11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="19" t="str">
         <f>VLOOKUP(I11,A2:F10,2,0)</f>
         <v>Neha Singh</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="19" t="str">
         <f>VLOOKUP(I11,A2:F10,3,0)</f>
         <v>Finance</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="19">
         <f>VLOOKUP(I11,A1:F9,5,0)</f>
         <v>58000</v>
       </c>
-      <c r="N11" t="str">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19" t="str">
         <f t="shared" ref="N11:N13" si="0">IFERROR(VLOOKUP(I11,A2:F10,1,0),"NOT FOUND")</f>
         <v>E104</v>
       </c>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
+      <c r="I12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M12" t="str">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19" t="str">
         <f>VLOOKUP(I12,A1:F9,4,0)</f>
         <v>Hyderabad</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>E107</v>
       </c>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N13" t="str">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19" t="str">
         <f>IFERROR(VLOOKUP(I13,A4:F12,1,0),"NOT FOUND")</f>
         <v>NOT FOUND</v>
       </c>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
+      <c r="I14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O14">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19">
         <f>VLOOKUP(I14,A1:F9,6,0)</f>
         <v>2019</v>
       </c>
@@ -978,7 +1009,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:T9"/>
+      <selection activeCell="A8" sqref="A8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,22 +1042,22 @@
       <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1049,206 +1080,209 @@
       <c r="G2" s="11">
         <v>0.09</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="14">
         <v>45000</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="14">
         <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="16">
         <v>52000</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="16">
         <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="14">
         <v>65000</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="14">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="16">
         <v>58000</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="16">
         <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="14">
         <v>48000</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="14">
         <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="16">
         <v>62000</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="16">
         <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="14">
         <v>47000</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="14">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <f>HLOOKUP(B9,B1:G2,2,0)</f>
         <v>0.15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="19">
         <f>VLOOKUP(A9,O1:T9,5,0)</f>
         <v>58000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="19">
         <f>D9*C9</f>
         <v>8700</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="16">
         <v>54000</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="16">
         <v>2016</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="19" t="str">
         <f>IFERROR(HLOOKUP(B10,B1:G2,2,0),"NO BONUS DATA")</f>
         <v>NO BONUS DATA</v>
       </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1260,7 +1294,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,22 +1308,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1312,22 +1346,22 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>45000</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>2019</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1350,215 +1384,215 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>52000</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>65000</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>58000</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>48000</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>62000</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>2019</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>47000</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>54000</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>2016</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>40</v>
+      <c r="G14" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <f>_xlfn.XLOOKUP(B15,A2:A9,E2:E9)</f>
         <v>45000</v>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" s="19" t="str">
         <f>_xlfn.XLOOKUP(B15,A2:A9,B2:B9)</f>
         <v>Rahul Sharma</v>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" s="19" t="str">
         <f>_xlfn.XLOOKUP(D15,B2:B9,C2:C9)</f>
         <v>Sales</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="20">
         <f>_xlfn.XLOOKUP(M1,L1:Q1,L2:Q2)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="str">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="str">
         <f>_xlfn.XLOOKUP(B16,A3:A10,B3:B10)</f>
         <v>Rohit Verma</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="str">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="str">
         <f>_xlfn.XLOOKUP(D16,B2:B9,D2:D9)</f>
         <v>Bangalore</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="str">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(B17,A2:A9,B2:B9),"EMPLOYEE NOT FOUND")</f>
         <v>EMPLOYEE NOT FOUND</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
